--- a/Output/Concentration_models_edit.xlsx
+++ b/Output/Concentration_models_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyssa\Desktop\Repositories\TidePoolMicrobes\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A60D79E-2B01-46A8-9439-FD98F111BD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8676CEA-3531-4585-9DC7-068D5F80C9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="225" windowWidth="28800" windowHeight="27495" xr2:uid="{85B0D9A2-8ED5-48DA-86EE-2786B2DCCC93}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="24195" windowHeight="14835" xr2:uid="{85B0D9A2-8ED5-48DA-86EE-2786B2DCCC93}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentration_models" sheetId="1" r:id="rId1"/>
@@ -1230,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860B8087-FCB0-48D0-AD1B-2D566D912945}">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:D50"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2224,5 +2224,6 @@
     <mergeCell ref="C35:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Output/Concentration_models_edit.xlsx
+++ b/Output/Concentration_models_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyssa\Desktop\Repositories\TidePoolMicrobes\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8676CEA-3531-4585-9DC7-068D5F80C9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1807DFB3-0B76-4F78-B0C5-70A6C2FE388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="24195" windowHeight="14835" xr2:uid="{85B0D9A2-8ED5-48DA-86EE-2786B2DCCC93}"/>
+    <workbookView xWindow="14303" yWindow="-6173" windowWidth="24195" windowHeight="14476" xr2:uid="{85B0D9A2-8ED5-48DA-86EE-2786B2DCCC93}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentration_models" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>Ammonium</t>
   </si>
   <si>
-    <t>Nitrate_Nitrite</t>
-  </si>
-  <si>
     <t>Term</t>
   </si>
   <si>
@@ -81,12 +78,15 @@
   <si>
     <t>Removal:Month</t>
   </si>
+  <si>
+    <t>Nitrate+Nitrite</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +229,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -810,21 +817,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -833,24 +825,39 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1230,70 +1237,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860B8087-FCB0-48D0-AD1B-2D566D912945}">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.86328125" customWidth="1"/>
-    <col min="4" max="4" width="27.59765625" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.265625" customWidth="1"/>
-    <col min="7" max="7" width="6.1328125" customWidth="1"/>
-    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:8" s="9" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="19">
         <v>-0.23166141863633299</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="19">
         <v>-0.98462802571734498</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="19">
         <v>21.791544504098901</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="20">
         <v>0.33561362436601599</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="14"/>
-      <c r="C4" s="10"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="29"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>1.5337097105512401</v>
@@ -1305,14 +1312,14 @@
         <v>21.7915445044253</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="14"/>
-      <c r="C5" s="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="29"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
         <v>-0.26367510888852602</v>
@@ -1323,15 +1330,15 @@
       <c r="G5" s="2">
         <v>14.000000066083601</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <v>0.265227739765449</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="14"/>
-      <c r="C6" s="10"/>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>-1.61342352878009</v>
@@ -1343,15 +1350,15 @@
         <v>14.000000066081901</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="14"/>
-      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="2">
@@ -1367,11 +1374,11 @@
         <v>0.546492682779391</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="14"/>
-      <c r="C8" s="10"/>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>-1.4239326680337001</v>
@@ -1383,14 +1390,14 @@
         <v>25.444015306986099</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="14"/>
-      <c r="C9" s="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <v>0.54670315871694197</v>
@@ -1405,11 +1412,11 @@
         <v>7.3396989089152195E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="14"/>
-      <c r="C10" s="10"/>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2">
         <v>1.1811322420909001</v>
@@ -1424,12 +1431,12 @@
         <v>9.2771212385660204E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="14"/>
-      <c r="C11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="27" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="2">
@@ -1445,11 +1452,11 @@
         <v>5.74910585735472E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="14"/>
-      <c r="C12" s="10"/>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
         <v>-0.59384520140614905</v>
@@ -1464,11 +1471,11 @@
         <v>0.22307463868716701</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="14"/>
-      <c r="C13" s="10"/>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
         <v>-1.14762393505548</v>
@@ -1480,14 +1487,14 @@
         <v>14.000000107019099</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="14"/>
-      <c r="C14" s="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2">
         <v>0.78627707932443502</v>
@@ -1502,12 +1509,12 @@
         <v>5.14613782353519E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="14"/>
-      <c r="C15" s="10" t="s">
+    <row r="15" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="2">
@@ -1523,11 +1530,11 @@
         <v>0.14493621247038299</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16" s="14"/>
-      <c r="C16" s="10"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="29"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
         <v>0.36779796259713499</v>
@@ -1542,11 +1549,11 @@
         <v>0.40346375368785098</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B17" s="14"/>
-      <c r="C17" s="10"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2">
         <v>1.39557332789278</v>
@@ -1558,14 +1565,14 @@
         <v>27.999999999239598</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="14"/>
-      <c r="C18" s="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2">
         <v>-1.68787774522831</v>
@@ -1580,12 +1587,12 @@
         <v>1.0254843201121799E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B19" s="14"/>
-      <c r="C19" s="10" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="2">
@@ -1601,11 +1608,11 @@
         <v>0.95653128472149296</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B20" s="14"/>
-      <c r="C20" s="10"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2">
         <v>-1.25936445949183E-3</v>
@@ -1620,11 +1627,11 @@
         <v>0.99799808225350195</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B21" s="14"/>
-      <c r="C21" s="10"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2">
         <v>0.41410511606727002</v>
@@ -1639,11 +1646,11 @@
         <v>0.412215680208737</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B22" s="14"/>
-      <c r="C22" s="10"/>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="2">
         <v>-0.90307586760790504</v>
@@ -1658,12 +1665,12 @@
         <v>0.20979181244303599</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B23" s="14"/>
-      <c r="C23" s="10" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="2">
@@ -1679,11 +1686,11 @@
         <v>0.96993183750835099</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B24" s="14"/>
-      <c r="C24" s="10"/>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2">
         <v>0.59784528526855096</v>
@@ -1698,11 +1705,11 @@
         <v>0.23383255613010501</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B25" s="14"/>
-      <c r="C25" s="10"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="29"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
         <v>-0.20928069024871301</v>
@@ -1717,11 +1724,11 @@
         <v>0.60572861211337103</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
-      <c r="C26" s="11"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="6">
         <v>-0.72436029190377604</v>
@@ -1736,34 +1743,34 @@
         <v>0.21714839353992099</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="21" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="16">
+        <v>-0.42011599332233901</v>
+      </c>
+      <c r="F27" s="16">
+        <v>-1.6846289110519399</v>
+      </c>
+      <c r="G27" s="16">
+        <v>27.4451290505557</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0.103400667632015</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="24"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="23">
-        <v>-0.42011599332233901</v>
-      </c>
-      <c r="F27" s="23">
-        <v>-1.6846289110519399</v>
-      </c>
-      <c r="G27" s="23">
-        <v>27.4451290505557</v>
-      </c>
-      <c r="H27" s="24">
-        <v>0.103400667632015</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B28" s="12"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E28" s="2">
         <v>1.6843225949099301</v>
@@ -1775,14 +1782,14 @@
         <v>27.445129049997899</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="12"/>
-      <c r="C29" s="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2">
         <v>-3.8550055151004799E-2</v>
@@ -1793,15 +1800,15 @@
       <c r="G29" s="2">
         <v>13.9999999505534</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="10">
         <v>0.90772977195981397</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="12"/>
-      <c r="C30" s="10"/>
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="24"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2">
         <v>-1.6110811062285</v>
@@ -1813,15 +1820,15 @@
         <v>13.999999951038999</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B31" s="12"/>
-      <c r="C31" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="C31" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="2">
@@ -1837,11 +1844,11 @@
         <v>0.45044195637579199</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B32" s="12"/>
-      <c r="C32" s="10"/>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2">
         <v>-0.41751442051786603</v>
@@ -1856,11 +1863,11 @@
         <v>0.36446261540532798</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B33" s="12"/>
-      <c r="C33" s="10"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2">
         <v>0.92536749248345496</v>
@@ -1875,11 +1882,11 @@
         <v>2.58074501805758E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="12"/>
-      <c r="C34" s="10"/>
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2">
         <v>-3.5508307372021902E-2</v>
@@ -1894,12 +1901,12 @@
         <v>0.94702388523238201</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B35" s="12"/>
-      <c r="C35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="27" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="24"/>
+      <c r="C35" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E35" s="2">
@@ -1912,14 +1919,14 @@
         <v>27.930359430316098</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B36" s="12"/>
-      <c r="C36" s="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="2">
         <v>-0.29671545912149</v>
@@ -1934,11 +1941,11 @@
         <v>0.43711621924119498</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B37" s="12"/>
-      <c r="C37" s="10"/>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="24"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" s="2">
         <v>-1.6017367365508499</v>
@@ -1950,14 +1957,14 @@
         <v>13.999999274491501</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="12"/>
-      <c r="C38" s="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="24"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2">
         <v>0.49995665679776402</v>
@@ -1972,12 +1979,12 @@
         <v>0.35155576225916801</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B39" s="12"/>
-      <c r="C39" s="10" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="24"/>
+      <c r="C39" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E39" s="2">
@@ -1989,15 +1996,15 @@
       <c r="G39" s="2">
         <v>26.623884174146099</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="11">
         <v>4.4094335014090102E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B40" s="12"/>
-      <c r="C40" s="10"/>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="24"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2">
         <v>-1.14136990080168</v>
@@ -2008,15 +2015,15 @@
       <c r="G40" s="2">
         <v>26.623884173535401</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="11">
         <v>2.2154607473265999E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B41" s="12"/>
-      <c r="C41" s="10"/>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="24"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="2">
         <v>-1.01315068367659</v>
@@ -2027,15 +2034,15 @@
       <c r="G41" s="2">
         <v>13.999999978013401</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="11">
         <v>2.78613384461593E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="12"/>
-      <c r="C42" s="10"/>
+    <row r="42" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="24"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2">
         <v>1.5008692053358601</v>
@@ -2046,16 +2053,16 @@
       <c r="G42" s="2">
         <v>13.9999999776562</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="11">
         <v>2.22403848672766E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B43" s="12"/>
-      <c r="C43" s="10" t="s">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="24"/>
+      <c r="C43" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E43" s="2">
@@ -2067,15 +2074,15 @@
       <c r="G43" s="2">
         <v>27.999999999419298</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="10">
         <v>0.21251248561299799</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B44" s="12"/>
-      <c r="C44" s="10"/>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="24"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2">
         <v>-0.94207420888390503</v>
@@ -2086,15 +2093,15 @@
       <c r="G44" s="2">
         <v>27.999999999419298</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="10">
         <v>6.03638348156883E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B45" s="12"/>
-      <c r="C45" s="10"/>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="24"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" s="2">
         <v>-0.69920318791138403</v>
@@ -2105,15 +2112,15 @@
       <c r="G45" s="2">
         <v>27.999999999419298</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="10">
         <v>0.157448385951447</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B46" s="12"/>
-      <c r="C46" s="10"/>
+    <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="24"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2">
         <v>1.5456362450060599</v>
@@ -2124,16 +2131,16 @@
       <c r="G46" s="2">
         <v>27.999999999419298</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="11">
         <v>3.1060786150510999E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B47" s="12"/>
-      <c r="C47" s="10" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="24"/>
+      <c r="C47" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="2">
@@ -2149,11 +2156,11 @@
         <v>0.80892486226774996</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B48" s="12"/>
-      <c r="C48" s="10"/>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" s="2">
         <v>-0.84542821714319205</v>
@@ -2168,11 +2175,11 @@
         <v>5.7482520961893803E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B49" s="12"/>
-      <c r="C49" s="10"/>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="24"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49" s="2">
         <v>0.48759692230998503</v>
@@ -2187,11 +2194,11 @@
         <v>0.16994367343615599</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="13"/>
-      <c r="C50" s="11"/>
+    <row r="50" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="6">
         <v>1.00897460483567</v>
@@ -2202,17 +2209,12 @@
       <c r="G50" s="7">
         <v>14.000000238693101</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="12">
         <v>5.26387804462881E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B26"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C19:C22"/>
     <mergeCell ref="B27:B50"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C23:C26"/>
@@ -2222,6 +2224,11 @@
     <mergeCell ref="C43:C46"/>
     <mergeCell ref="C31:C34"/>
     <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B26"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
